--- a/montecarlo/products/short-term.xlsx
+++ b/montecarlo/products/short-term.xlsx
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +99,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -142,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,19 +153,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -497,87 +485,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="9">
         <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>0.059</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>0.105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>0.0426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>0.0313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
     </row>
@@ -597,11 +585,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -639,11 +627,11 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="4"/>
